--- a/Week 14/beginning of the autophagosome.xlsx
+++ b/Week 14/beginning of the autophagosome.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -341,18 +341,6 @@
   </si>
   <si>
     <t>Any process that modulates the frequency, rate or extent of autophagosome assembly.</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -743,8 +731,8 @@
       <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" t="s">
-        <v>109</v>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -760,8 +748,8 @@
       <c r="D3" t="s">
         <v>75</v>
       </c>
-      <c r="E3" t="s">
-        <v>110</v>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -777,8 +765,8 @@
       <c r="D4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" t="s">
-        <v>110</v>
+      <c r="E4">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -794,8 +782,8 @@
       <c r="D5" t="s">
         <v>77</v>
       </c>
-      <c r="E5" t="s">
-        <v>110</v>
+      <c r="E5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -811,8 +799,8 @@
       <c r="D6" t="s">
         <v>78</v>
       </c>
-      <c r="E6" t="s">
-        <v>110</v>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -828,8 +816,8 @@
       <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" t="s">
-        <v>109</v>
+      <c r="E7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -845,8 +833,8 @@
       <c r="D8" t="s">
         <v>80</v>
       </c>
-      <c r="E8" t="s">
-        <v>109</v>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -862,8 +850,8 @@
       <c r="D9" t="s">
         <v>81</v>
       </c>
-      <c r="E9" t="s">
-        <v>109</v>
+      <c r="E9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -879,8 +867,8 @@
       <c r="D10" t="s">
         <v>82</v>
       </c>
-      <c r="E10" t="s">
-        <v>110</v>
+      <c r="E10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -896,8 +884,8 @@
       <c r="D11" t="s">
         <v>83</v>
       </c>
-      <c r="E11" t="s">
-        <v>110</v>
+      <c r="E11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -913,8 +901,8 @@
       <c r="D12" t="s">
         <v>84</v>
       </c>
-      <c r="E12" t="s">
-        <v>109</v>
+      <c r="E12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -930,8 +918,8 @@
       <c r="D13" t="s">
         <v>85</v>
       </c>
-      <c r="E13" t="s">
-        <v>110</v>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -947,8 +935,8 @@
       <c r="D14" t="s">
         <v>86</v>
       </c>
-      <c r="E14" t="s">
-        <v>110</v>
+      <c r="E14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -964,8 +952,8 @@
       <c r="D15" t="s">
         <v>87</v>
       </c>
-      <c r="E15" t="s">
-        <v>110</v>
+      <c r="E15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -981,8 +969,8 @@
       <c r="D16" t="s">
         <v>88</v>
       </c>
-      <c r="E16" t="s">
-        <v>109</v>
+      <c r="E16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -998,8 +986,8 @@
       <c r="D17" t="s">
         <v>89</v>
       </c>
-      <c r="E17" t="s">
-        <v>110</v>
+      <c r="E17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1015,8 +1003,8 @@
       <c r="D18" t="s">
         <v>90</v>
       </c>
-      <c r="E18" t="s">
-        <v>110</v>
+      <c r="E18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1032,8 +1020,8 @@
       <c r="D19" t="s">
         <v>91</v>
       </c>
-      <c r="E19" t="s">
-        <v>110</v>
+      <c r="E19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1049,8 +1037,8 @@
       <c r="D20" t="s">
         <v>92</v>
       </c>
-      <c r="E20" t="s">
-        <v>110</v>
+      <c r="E20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1066,8 +1054,8 @@
       <c r="D21" t="s">
         <v>93</v>
       </c>
-      <c r="E21" t="s">
-        <v>110</v>
+      <c r="E21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1083,8 +1071,8 @@
       <c r="D22" t="s">
         <v>94</v>
       </c>
-      <c r="E22" t="s">
-        <v>110</v>
+      <c r="E22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1100,8 +1088,8 @@
       <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" t="s">
-        <v>110</v>
+      <c r="E23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1117,8 +1105,8 @@
       <c r="D24" t="s">
         <v>96</v>
       </c>
-      <c r="E24" t="s">
-        <v>110</v>
+      <c r="E24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1134,8 +1122,8 @@
       <c r="D25" t="s">
         <v>97</v>
       </c>
-      <c r="E25" t="s">
-        <v>109</v>
+      <c r="E25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1151,8 +1139,8 @@
       <c r="D26" t="s">
         <v>98</v>
       </c>
-      <c r="E26" t="s">
-        <v>110</v>
+      <c r="E26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1168,8 +1156,8 @@
       <c r="D27" t="s">
         <v>99</v>
       </c>
-      <c r="E27" t="s">
-        <v>110</v>
+      <c r="E27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1185,8 +1173,8 @@
       <c r="D28" t="s">
         <v>100</v>
       </c>
-      <c r="E28" t="s">
-        <v>111</v>
+      <c r="E28">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1202,8 +1190,8 @@
       <c r="D29" t="s">
         <v>101</v>
       </c>
-      <c r="E29" t="s">
-        <v>111</v>
+      <c r="E29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1219,8 +1207,8 @@
       <c r="D30" t="s">
         <v>102</v>
       </c>
-      <c r="E30" t="s">
-        <v>112</v>
+      <c r="E30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1236,8 +1224,8 @@
       <c r="D31" t="s">
         <v>103</v>
       </c>
-      <c r="E31" t="s">
-        <v>111</v>
+      <c r="E31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1253,8 +1241,8 @@
       <c r="D32" t="s">
         <v>104</v>
       </c>
-      <c r="E32" t="s">
-        <v>111</v>
+      <c r="E32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1270,8 +1258,8 @@
       <c r="D33" t="s">
         <v>105</v>
       </c>
-      <c r="E33" t="s">
-        <v>110</v>
+      <c r="E33">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1287,8 +1275,8 @@
       <c r="D34" t="s">
         <v>106</v>
       </c>
-      <c r="E34" t="s">
-        <v>109</v>
+      <c r="E34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1304,8 +1292,8 @@
       <c r="D35" t="s">
         <v>107</v>
       </c>
-      <c r="E35" t="s">
-        <v>110</v>
+      <c r="E35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1321,8 +1309,8 @@
       <c r="D36" t="s">
         <v>108</v>
       </c>
-      <c r="E36" t="s">
-        <v>111</v>
+      <c r="E36">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
